--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H2">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N2">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q2">
-        <v>5.136848124857774</v>
+        <v>6.436326969701335</v>
       </c>
       <c r="R2">
-        <v>5.136848124857774</v>
+        <v>57.926942727312</v>
       </c>
       <c r="S2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="T2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H3">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N3">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q3">
-        <v>18.01927394817048</v>
+        <v>20.314339638896</v>
       </c>
       <c r="R3">
-        <v>18.01927394817048</v>
+        <v>182.829056750064</v>
       </c>
       <c r="S3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="T3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H4">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N4">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q4">
-        <v>10.68139766926088</v>
+        <v>12.37489687226133</v>
       </c>
       <c r="R4">
-        <v>10.68139766926088</v>
+        <v>111.374071850352</v>
       </c>
       <c r="S4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="T4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
     </row>
   </sheetData>
